--- a/Cronograma y Presupuesto.xlsx
+++ b/Cronograma y Presupuesto.xlsx
@@ -108,9 +108,6 @@
     <t>Seguro</t>
   </si>
   <si>
-    <t>Viáticos</t>
-  </si>
-  <si>
     <t>D. MATERIALES</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>TOTAL PROYECTO</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,12 +264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,6 +280,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,6 +290,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,12 +585,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AQ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR38" sqref="AR38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="15" width="3.5703125" customWidth="1"/>
@@ -591,77 +602,71 @@
     <col min="36" max="43" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
-        <v>3</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11">
-        <v>5</v>
-      </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11">
-        <v>8</v>
-      </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="10">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10">
-        <v>10</v>
-      </c>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-    </row>
-    <row r="5" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="23">
+        <v>43313</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="23">
+        <v>43344</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="23">
+        <v>43374</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="23">
+        <v>43405</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="23">
+        <v>43435</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="23">
+        <v>43466</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="23">
+        <v>43497</v>
+      </c>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="23">
+        <v>43525</v>
+      </c>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="23">
+        <v>43556</v>
+      </c>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+    </row>
+    <row r="5" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -772,24 +777,12 @@
       <c r="AM5" s="5">
         <v>4</v>
       </c>
-      <c r="AN5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="5">
+    </row>
+    <row r="6" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AQ5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -826,16 +819,12 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-    </row>
-    <row r="7" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+    </row>
+    <row r="7" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -864,24 +853,20 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
+      <c r="AF7" s="6"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="6"/>
+      <c r="AJ7" s="3"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-    </row>
-    <row r="8" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+    </row>
+    <row r="8" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -918,16 +903,12 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-    </row>
-    <row r="9" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    </row>
+    <row r="9" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -964,16 +945,12 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-    </row>
-    <row r="10" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    </row>
+    <row r="10" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1010,16 +987,12 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-    </row>
-    <row r="11" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+    </row>
+    <row r="11" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1056,16 +1029,12 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-    </row>
-    <row r="12" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    </row>
+    <row r="12" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1102,16 +1071,12 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-    </row>
-    <row r="13" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    </row>
+    <row r="13" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1148,16 +1113,12 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-    </row>
-    <row r="14" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+    </row>
+    <row r="14" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1194,16 +1155,12 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-    </row>
-    <row r="15" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+    </row>
+    <row r="15" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1240,16 +1197,12 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-    </row>
-    <row r="16" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+    </row>
+    <row r="16" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1286,14 +1239,10 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
     </row>
     <row r="17" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1335,297 +1284,333 @@
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
+    <row r="18" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23">
+        <v>43586</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="23">
+        <v>43617</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="23">
+        <v>43647</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="23">
+        <v>43678</v>
+      </c>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="23">
+        <v>43709</v>
+      </c>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="23">
+        <v>43739</v>
+      </c>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="23">
+        <v>43770</v>
+      </c>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="23">
+        <v>43800</v>
+      </c>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="23">
+        <v>43831</v>
+      </c>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
+    <row r="19" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>4</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>2</v>
+      </c>
+      <c r="R19" s="4">
+        <v>3</v>
+      </c>
+      <c r="S19" s="4">
+        <v>4</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3</v>
+      </c>
+      <c r="W19" s="4">
+        <v>4</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>4</v>
+      </c>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
     </row>
+    <row r="20" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+    </row>
     <row r="21" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>11</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <v>12</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11">
-        <v>13</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11">
-        <v>15</v>
-      </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11">
-        <v>17</v>
-      </c>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11">
-        <v>18</v>
-      </c>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="10">
-        <v>19</v>
-      </c>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10">
-        <v>20</v>
-      </c>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
+      <c r="B21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
     </row>
     <row r="22" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4">
-        <v>4</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
-      <c r="N22" s="4">
-        <v>3</v>
-      </c>
-      <c r="O22" s="4">
-        <v>4</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>2</v>
-      </c>
-      <c r="R22" s="4">
-        <v>3</v>
-      </c>
-      <c r="S22" s="4">
-        <v>4</v>
-      </c>
-      <c r="T22" s="4">
-        <v>1</v>
-      </c>
-      <c r="U22" s="4">
-        <v>2</v>
-      </c>
-      <c r="V22" s="4">
-        <v>3</v>
-      </c>
-      <c r="W22" s="4">
-        <v>4</v>
-      </c>
-      <c r="X22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>3</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>4</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP22" s="5">
-        <v>3</v>
-      </c>
-      <c r="AQ22" s="5">
-        <v>4</v>
-      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
     </row>
     <row r="23" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1654,24 +1639,24 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
     </row>
     <row r="24" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1688,7 +1673,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="6"/>
+      <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -1696,40 +1681,40 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="6"/>
+      <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
     </row>
     <row r="25" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="B25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -1746,44 +1731,44 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
     </row>
     <row r="26" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -1792,31 +1777,31 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
     </row>
     <row r="27" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1831,39 +1816,39 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
     </row>
     <row r="28" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="B28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -1881,23 +1866,23 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
     </row>
     <row r="29" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="20"/>
+      <c r="B29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="19"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1905,19 +1890,19 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
@@ -1929,21 +1914,21 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
     </row>
     <row r="30" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="20"/>
+      <c r="B30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="19"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1951,10 +1936,10 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -1965,10 +1950,10 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
@@ -1976,156 +1961,36 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
-    </row>
-    <row r="31" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-    </row>
-    <row r="32" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-    </row>
-    <row r="33" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
+    </row>
+    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+    </row>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+    </row>
+    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2168,95 +2033,57 @@
       <c r="AQ34" s="7"/>
     </row>
     <row r="35" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
     </row>
     <row r="36" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="47">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AJ18:AM18"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="AF4:AI4"/>
@@ -2266,49 +2093,9 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:W4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2317,7 +2104,7 @@
   <dimension ref="C3:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,54 +2114,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
-        <v>8000000</v>
+      <c r="D5" s="12">
+        <v>7000000</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14">
-        <v>700000</v>
+      <c r="D8" s="12">
+        <v>1500000</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>200000</v>
       </c>
     </row>
@@ -2382,75 +2169,75 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>400000</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14">
-        <v>100000</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="14">
-        <v>300000</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="12">
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>30000</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="12">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="12">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="14">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <f>SUM(D5:D18)</f>
-        <v>13430000</v>
+        <v>14330000</v>
       </c>
     </row>
   </sheetData>
